--- a/sample_excel_files/test_case_min_max_key.xlsx
+++ b/sample_excel_files/test_case_min_max_key.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hanfa/workspace/pysheetgrader/sample_excel_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F596C12D-DED1-5B4F-AB85-DC179FCE427E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD82F826-7559-7F45-B911-79282A23D1D7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23900" yWindow="1840" windowWidth="19200" windowHeight="19440" activeTab="1" xr2:uid="{6E72627C-1CB6-4848-9B50-C1295434D515}"/>
+    <workbookView xWindow="-19200" yWindow="500" windowWidth="19200" windowHeight="21100" activeTab="2" xr2:uid="{6E72627C-1CB6-4848-9B50-C1295434D515}"/>
   </bookViews>
   <sheets>
     <sheet name="SheetGradingOrder" sheetId="1" r:id="rId1"/>
@@ -379,12 +379,160 @@
         </r>
       </text>
     </comment>
+    <comment ref="B9" authorId="1" shapeId="0" xr:uid="{901EC928-1CEB-0C4B-9AF3-9FC29B11EFB4}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="7"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+          </rPr>
+          <t xml:space="preserve">rubric:
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="7"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+          </rPr>
+          <t xml:space="preserve"> score: 1.5
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="7"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+          </rPr>
+          <t xml:space="preserve"> type: test
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="7"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+          </rPr>
+          <t xml:space="preserve">test_cases:
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="7"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+          </rPr>
+          <t xml:space="preserve"> first_test:
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="7"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+          </rPr>
+          <t xml:space="preserve">  output: 1000
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="7"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+          </rPr>
+          <t xml:space="preserve">  input:
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="7"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+          </rPr>
+          <t xml:space="preserve">   B2: 1000 
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="7"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+          </rPr>
+          <t xml:space="preserve">   B3: 2000
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="7"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+          </rPr>
+          <t xml:space="preserve">   B8: true
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="7"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+          </rPr>
+          <t xml:space="preserve"> second_test:
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="7"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+          </rPr>
+          <t xml:space="preserve">  output: 999
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="7"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+          </rPr>
+          <t xml:space="preserve">  input:
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="7"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+          </rPr>
+          <t xml:space="preserve">   B2: 1500
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="7"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+          </rPr>
+          <t xml:space="preserve">   B3: 999
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="7"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+          </rPr>
+          <t xml:space="preserve">   B8: false
+</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="24">
   <si>
     <t>Number</t>
   </si>
@@ -444,13 +592,25 @@
   </si>
   <si>
     <t>min_offer</t>
+  </si>
+  <si>
+    <t>should_get_min</t>
+  </si>
+  <si>
+    <t>result</t>
+  </si>
+  <si>
+    <t>B9</t>
+  </si>
+  <si>
+    <t>get first if true else second</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -469,6 +629,11 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="7"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
@@ -841,10 +1006,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{064C43C6-5CB5-C440-9F78-B7711421521C}">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="187" zoomScaleNormal="187" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView zoomScale="187" zoomScaleNormal="187" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -911,6 +1076,23 @@
         <v>125000</v>
       </c>
     </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9">
+        <f xml:space="preserve"> IF(B8,B2,B3)</f>
+        <v>145000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
@@ -919,10 +1101,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8290A36-E311-014F-BFC1-47B09A169C19}">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -967,6 +1149,17 @@
         <v>18</v>
       </c>
     </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" t="s">
+        <v>23</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
